--- a/medicine/Premiers secours et secourisme/Compagnie_de_sauveteurs_de_Reims/Compagnie_de_sauveteurs_de_Reims.xlsx
+++ b/medicine/Premiers secours et secourisme/Compagnie_de_sauveteurs_de_Reims/Compagnie_de_sauveteurs_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1872, la Compagnie de sauveteurs de Reims est toujours en activité de nos jours sous le nom de Protection civile de Reims. Elle fut l'une des premières associations de secourisme en France, et créa notamment, à  l'aide de son président Albert Magniez, en 1927 un mannequin en zinc permettant de former au sauvetage aquatique. Elle était également dotée, chose anecdotique pour une telle association, d'une section sportive très réputée et récompensée.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Compagnie de sauveteurs de Reims (CSR) est membre de l'Association départementale de protection civile de la Marne (ADPC 51), elle-même affiliée à la Fédération nationale de protection civile (FNPC).
 La Compagnie est une association loi de 1901, œuvrant principalement dans le domaine du secourisme ; elle a pour but :
@@ -551,10 +565,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1872[1],[2], à la suite du terrible incendie qui ravage le quartier du faubourg Cérès, le maire de Reims Victor Diancourt décide, avec Alfred d'Anglemont de Tassigny (1832-1899), fondateur et commandant du corps des sapeurs-pompiers de Reims, de créer une section auxiliaire des pompiers dont le but sera, en cas d'incendie, de sauvegarder les biens et de secourir les blessés : c'est la compagnie de sauveteurs de Reims qui naît cette année-là, le 7 février 1872[3].
-Cette société créa une  École de natation pour former des sauveteurs[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1872 à la suite du terrible incendie qui ravage le quartier du faubourg Cérès, le maire de Reims Victor Diancourt décide, avec Alfred d'Anglemont de Tassigny (1832-1899), fondateur et commandant du corps des sapeurs-pompiers de Reims, de créer une section auxiliaire des pompiers dont le but sera, en cas d'incendie, de sauvegarder les biens et de secourir les blessés : c'est la compagnie de sauveteurs de Reims qui naît cette année-là, le 7 février 1872.
+Cette société créa une  École de natation pour former des sauveteurs.
 En 1882, la municipalité et la Compagnie de sauveteurs de Reims, crée les "Bains des Trois Rivières" dans la Vesle.
 </t>
         </is>
@@ -584,13 +600,15 @@
           <t>Président de l'association</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Narcisse Farre (1er président de l'association)[3] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Narcisse Farre (1er président de l'association) ;
 Albert Magniez ;
 Docteur Antoine Chevrier ;
 Belleau.
-Léon-Auguste Patoux,(1838-1888)[5]</t>
+Léon-Auguste Patoux,(1838-1888)</t>
         </is>
       </c>
     </row>
@@ -618,9 +636,11 @@
           <t>Médaille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La Compagnie des sauveteurs de Reims faisait frapper des plaquettes ou médailles dont les bénéfices de la vente étaient destinés aux veuves, orphelins et autres victimes des bombardements de Reims[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Compagnie des sauveteurs de Reims faisait frapper des plaquettes ou médailles dont les bénéfices de la vente étaient destinés aux veuves, orphelins et autres victimes des bombardements de Reims.</t>
         </is>
       </c>
     </row>
